--- a/ProntoMVC/Documentos/archivo.xlsx
+++ b/ProntoMVC/Documentos/archivo.xlsx
@@ -1499,7 +1499,7 @@
       <x:c r="A2" s="77" t="s"/>
       <x:c r="B2" s="78" t="s"/>
       <x:c r="E2" s="68" t="str">
-        <x:v>Comparativa N°1</x:v>
+        <x:v>Comparativa N°29</x:v>
       </x:c>
       <x:c r="F2" s="69" t="s"/>
       <x:c r="G2" s="69" t="s"/>
@@ -1509,7 +1509,7 @@
       <x:c r="B3" s="79" t="s"/>
       <x:c r="C3" s="80" t="s"/>
       <x:c r="E3" s="68" t="str">
-        <x:v>Fecha 17/05/2013 0:00:00</x:v>
+        <x:v>Fecha 22/02/2015 0:00:00</x:v>
       </x:c>
       <x:c r="F3" s="69" t="s"/>
       <x:c r="G3" s="69" t="s"/>
@@ -1518,7 +1518,7 @@
     <x:row r="4" spans="1:60" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="B4" s="81" t="s"/>
       <x:c r="E4" s="82" t="str">
-        <x:v>Comprador: Andres</x:v>
+        <x:v>Comprador: superadmin</x:v>
       </x:c>
       <x:c r="F4" s="83" t="s"/>
       <x:c r="G4" s="83" t="s"/>
@@ -1527,7 +1527,7 @@
     <x:row r="5" spans="1:60" customFormat="1" ht="21.75" customHeight="1">
       <x:c r="A5" s="85" t="s"/>
       <x:c r="B5" s="86" t="str">
-        <x:v>Obra/s : Adrogue Norte - Buenos Aires</x:v>
+        <x:v>Obra/s : Pavimentacion R-8</x:v>
       </x:c>
       <x:c r="C5" s="86" t="s"/>
       <x:c r="D5" s="86" t="s"/>
@@ -1539,7 +1539,7 @@
     <x:row r="6" spans="1:60" customFormat="1" ht="21.75" customHeight="1">
       <x:c r="A6" s="85" t="s"/>
       <x:c r="B6" s="87" t="str">
-        <x:v>RM / LA : 227</x:v>
+        <x:v>RM / LA : 139</x:v>
       </x:c>
       <x:c r="D6" s="88" t="s"/>
       <x:c r="E6" s="76" t="s"/>
@@ -1561,21 +1561,13 @@
         <x:v>Unidad </x:v>
       </x:c>
       <x:c r="E7" s="89" t="str">
-        <x:v>TIGRE ARGENTINA S. A.</x:v>
+        <x:v>Proveedor 2</x:v>
       </x:c>
       <x:c r="F7" s="90" t="s"/>
-      <x:c r="G7" s="89" t="s">
-        <x:v>9</x:v>
+      <x:c r="G7" s="89" t="str">
+        <x:v>ACARAYE</x:v>
       </x:c>
       <x:c r="H7" s="90" t="s"/>
-      <x:c r="I7" s="89" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J7" s="90" t="s"/>
-      <x:c r="K7" s="89" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="L7" s="90" t="s"/>
     </x:row>
     <x:row r="8" spans="1:60">
       <x:c r="A8" s="91" t="s"/>
@@ -1590,14 +1582,6 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="92" t="s"/>
-      <x:c r="I8" s="92" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J8" s="92" t="s"/>
-      <x:c r="K8" s="92" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="L8" s="92" t="s"/>
     </x:row>
     <x:row r="9" spans="1:60" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="A9" s="91" t="s"/>
@@ -1610,23 +1594,11 @@
       <x:c r="F9" s="92" t="str">
         <x:v>Total </x:v>
       </x:c>
-      <x:c r="G9" s="92" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H9" s="92" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I9" s="92" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="J9" s="92" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K9" s="92" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="L9" s="92" t="s">
-        <x:v>12</x:v>
+      <x:c r="G9" s="92" t="str">
+        <x:v>Unitario </x:v>
+      </x:c>
+      <x:c r="H9" s="92" t="str">
+        <x:v>Total </x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:60" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
@@ -1634,37 +1606,25 @@
         <x:v>1.00</x:v>
       </x:c>
       <x:c r="B10" s="93" t="str">
-        <x:v>Tubo Cloaca 200x5.9x6M</x:v>
+        <x:v>Articulo 2 - Pinturas</x:v>
       </x:c>
       <x:c r="C10" s="94" t="n">
-        <x:v>3156.00</x:v>
+        <x:v>0.00</x:v>
       </x:c>
       <x:c r="D10" s="94" t="str">
-        <x:v>Unidad</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E10" s="94" t="n">
-        <x:v>383.75</x:v>
+        <x:v>90.00</x:v>
       </x:c>
       <x:c r="F10" s="94" t="n">
-        <x:v>1211109.95</x:v>
-      </x:c>
-      <x:c r="G10" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H10" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I10" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J10" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K10" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L10" s="94" t="str">
-        <x:v/>
+        <x:v>0.00</x:v>
+      </x:c>
+      <x:c r="G10" s="94" t="n">
+        <x:v>100.00</x:v>
+      </x:c>
+      <x:c r="H10" s="94" t="n">
+        <x:v>0.00</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:60">
@@ -1672,765 +1632,309 @@
         <x:v>2.00</x:v>
       </x:c>
       <x:c r="B11" s="93" t="str">
-        <x:v>Tubo K10 225x10.8x6M</x:v>
+        <x:v>Componente 1</x:v>
       </x:c>
       <x:c r="C11" s="94" t="n">
-        <x:v>1.00</x:v>
+        <x:v>0.00</x:v>
       </x:c>
       <x:c r="D11" s="94" t="str">
-        <x:v>Unidad</x:v>
+        <x:v/>
       </x:c>
       <x:c r="E11" s="94" t="n">
-        <x:v>735.38</x:v>
+        <x:v>210.00</x:v>
       </x:c>
       <x:c r="F11" s="94" t="n">
-        <x:v>735.38</x:v>
-      </x:c>
-      <x:c r="G11" s="94" t="str">
+        <x:v>0.00</x:v>
+      </x:c>
+      <x:c r="G11" s="94" t="n">
+        <x:v>200.00</x:v>
+      </x:c>
+      <x:c r="H11" s="94" t="n">
+        <x:v>0.00</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:60">
+      <x:c r="A12" s="130" t="s"/>
+      <x:c r="B12" s="131" t="s"/>
+      <x:c r="C12" s="132" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" s="132" t="str">
+        <x:v>Bonificacion </x:v>
+      </x:c>
+      <x:c r="E12" s="133" t="s"/>
+      <x:c r="F12" s="134" t="n">
+        <x:v>300.00</x:v>
+      </x:c>
+      <x:c r="G12" s="133" t="s"/>
+      <x:c r="H12" s="134" t="n">
+        <x:v>300.00</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:60" thickBot="1">
+      <x:c r="A13" s="76" t="s"/>
+      <x:c r="B13" s="115" t="s"/>
+      <x:c r="C13" s="128" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D13" s="128" t="str">
+        <x:v>TOTAL </x:v>
+      </x:c>
+      <x:c r="E13" s="76" t="s"/>
+      <x:c r="F13" s="129" t="n">
+        <x:v>0.00</x:v>
+      </x:c>
+      <x:c r="G13" s="76" t="s"/>
+      <x:c r="H13" s="129" t="n">
+        <x:v>0.00</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:60" customFormat="1" ht="12" customHeight="1">
+      <x:c r="A14" s="80" t="s"/>
+      <x:c r="B14" s="124" t="s"/>
+      <x:c r="C14" s="125" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D14" s="125" t="s"/>
+      <x:c r="E14" s="126" t="s"/>
+      <x:c r="F14" s="127" t="n">
+        <x:v>318.90</x:v>
+      </x:c>
+      <x:c r="G14" s="126" t="s"/>
+      <x:c r="H14" s="127" t="n">
+        <x:v>321.00</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:60" customFormat="1" ht="11.25" customHeight="1">
+      <x:c r="A15" s="76" t="s"/>
+      <x:c r="B15" s="115" t="s"/>
+      <x:c r="C15" s="121" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D15" s="122" t="s"/>
+      <x:c r="E15" s="123" t="str">
         <x:v/>
       </x:c>
-      <x:c r="H11" s="94" t="str">
+      <x:c r="F15" s="123" t="s"/>
+      <x:c r="G15" s="123" t="str">
         <x:v/>
       </x:c>
-      <x:c r="I11" s="94" t="str">
+      <x:c r="H15" s="123" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
+      <x:c r="A16" s="76" t="s"/>
+      <x:c r="B16" s="115" t="s"/>
+      <x:c r="C16" s="111" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D16" s="119" t="s"/>
+      <x:c r="E16" s="120" t="str">
+        <x:v>15 días fecha factura</x:v>
+      </x:c>
+      <x:c r="F16" s="120" t="s"/>
+      <x:c r="G16" s="120" t="str">
+        <x:v>45 días fecha factura</x:v>
+      </x:c>
+      <x:c r="H16" s="120" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
+      <x:c r="A17" s="76" t="s"/>
+      <x:c r="B17" s="115" t="s"/>
+      <x:c r="C17" s="111" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D17" s="119" t="s"/>
+      <x:c r="E17" s="120" t="str">
         <x:v/>
       </x:c>
-      <x:c r="J11" s="94" t="str">
+      <x:c r="F17" s="120" t="s"/>
+      <x:c r="G17" s="120" t="str">
         <x:v/>
       </x:c>
-      <x:c r="K11" s="94" t="str">
+      <x:c r="H17" s="120" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:60">
+      <x:c r="A18" s="76" t="s"/>
+      <x:c r="B18" s="115" t="s"/>
+      <x:c r="C18" s="116" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D18" s="117" t="s"/>
+      <x:c r="E18" s="118" t="str">
+        <x:v>19/2</x:v>
+      </x:c>
+      <x:c r="F18" s="118" t="s"/>
+      <x:c r="G18" s="118" t="str">
+        <x:v>19/1</x:v>
+      </x:c>
+      <x:c r="H18" s="118" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:60">
+      <x:c r="A19" s="96" t="s"/>
+      <x:c r="B19" s="96" t="s"/>
+      <x:c r="C19" s="105" t="s"/>
+      <x:c r="D19" s="105" t="s"/>
+      <x:c r="E19" s="105" t="s"/>
+      <x:c r="F19" s="105" t="s"/>
+      <x:c r="G19" s="105" t="s"/>
+      <x:c r="H19" s="105" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
+      <x:c r="A20" s="113" t="str">
+        <x:v>Obs.Grales. : </x:v>
+      </x:c>
+      <x:c r="B20" s="114" t="s"/>
+      <x:c r="C20" s="112" t="s"/>
+      <x:c r="D20" s="88" t="s"/>
+      <x:c r="E20" s="88" t="s"/>
+      <x:c r="F20" s="88" t="s"/>
+      <x:c r="G20" s="88" t="s"/>
+      <x:c r="H20" s="88" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:60" customFormat="1" ht="9.95" customHeight="1">
+      <x:c r="A21" s="110" t="str">
+        <x:v>Monto previsto : 0</x:v>
+      </x:c>
+      <x:c r="B21" s="111" t="s"/>
+      <x:c r="C21" s="112" t="s"/>
+      <x:c r="D21" s="88" t="s"/>
+      <x:c r="E21" s="88" t="s"/>
+      <x:c r="F21" s="88" t="s"/>
+      <x:c r="G21" s="88" t="s"/>
+      <x:c r="H21" s="88" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:60" customFormat="1" ht="9.95" customHeight="1">
+      <x:c r="A22" s="110" t="str">
+        <x:v>Monto para compra : 0</x:v>
+      </x:c>
+      <x:c r="B22" s="111" t="s"/>
+      <x:c r="C22" s="112" t="s"/>
+      <x:c r="D22" s="88" t="s"/>
+      <x:c r="E22" s="88" t="s"/>
+      <x:c r="F22" s="88" t="s"/>
+      <x:c r="G22" s="88" t="s"/>
+      <x:c r="H22" s="88" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:60">
+      <x:c r="A24" s="109" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B24" s="109" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:60">
+      <x:c r="A25" s="108" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B25" s="108" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:60">
+      <x:c r="A26" s="108" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B26" s="108" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:60">
+      <x:c r="A27" s="108" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B27" s="108" t="str">
         <x:v/>
       </x:c>
-      <x:c r="L11" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:60">
-      <x:c r="A12" s="92" t="n">
-        <x:v>3.00</x:v>
-      </x:c>
-      <x:c r="B12" s="93" t="str">
-        <x:v>Tubo Cloaca 315x9.2x6M</x:v>
-      </x:c>
-      <x:c r="C12" s="94" t="n">
-        <x:v>180.00</x:v>
-      </x:c>
-      <x:c r="D12" s="94" t="str">
-        <x:v>Unidad</x:v>
-      </x:c>
-      <x:c r="E12" s="94" t="n">
-        <x:v>951.99</x:v>
-      </x:c>
-      <x:c r="F12" s="94" t="n">
-        <x:v>171358.49</x:v>
-      </x:c>
-      <x:c r="G12" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H12" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I12" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J12" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K12" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L12" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:60" thickBot="1">
-      <x:c r="A13" s="92" t="n">
-        <x:v>4.00</x:v>
-      </x:c>
-      <x:c r="B13" s="93" t="str">
-        <x:v>Tubo Cloaca 110x3.2x2M</x:v>
-      </x:c>
-      <x:c r="C13" s="94" t="n">
-        <x:v>11000.00</x:v>
-      </x:c>
-      <x:c r="D13" s="94" t="str">
-        <x:v>Unidad</x:v>
-      </x:c>
-      <x:c r="E13" s="94" t="n">
-        <x:v>41.22</x:v>
-      </x:c>
-      <x:c r="F13" s="94" t="n">
-        <x:v>453406.80</x:v>
-      </x:c>
-      <x:c r="G13" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H13" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I13" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J13" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K13" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L13" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:60">
-      <x:c r="A14" s="92" t="n">
-        <x:v>5.00</x:v>
-      </x:c>
-      <x:c r="B14" s="93" t="str">
-        <x:v>Ramal 45° 200x110</x:v>
-      </x:c>
-      <x:c r="C14" s="94" t="n">
-        <x:v>1937.00</x:v>
-      </x:c>
-      <x:c r="D14" s="94" t="str">
-        <x:v>Unidad</x:v>
-      </x:c>
-      <x:c r="E14" s="94" t="n">
-        <x:v>93.10</x:v>
-      </x:c>
-      <x:c r="F14" s="94" t="n">
-        <x:v>180334.70</x:v>
-      </x:c>
-      <x:c r="G14" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H14" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I14" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J14" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K14" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L14" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:60">
-      <x:c r="A15" s="92" t="n">
-        <x:v>6.00</x:v>
-      </x:c>
-      <x:c r="B15" s="93" t="str">
-        <x:v>Ramal 45° 315x110</x:v>
-      </x:c>
-      <x:c r="C15" s="94" t="n">
-        <x:v>138.00</x:v>
-      </x:c>
-      <x:c r="D15" s="94" t="str">
-        <x:v>Unidad</x:v>
-      </x:c>
-      <x:c r="E15" s="94" t="n">
-        <x:v>450.80</x:v>
-      </x:c>
-      <x:c r="F15" s="94" t="n">
-        <x:v>62210.40</x:v>
-      </x:c>
-      <x:c r="G15" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H15" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I15" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J15" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K15" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L15" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:60">
-      <x:c r="A16" s="92" t="n">
-        <x:v>7.00</x:v>
-      </x:c>
-      <x:c r="B16" s="93" t="str">
-        <x:v>Cupla HH 200 Termof</x:v>
-      </x:c>
-      <x:c r="C16" s="94" t="n">
-        <x:v>540.00</x:v>
-      </x:c>
-      <x:c r="D16" s="94" t="str">
-        <x:v>Unidad</x:v>
-      </x:c>
-      <x:c r="E16" s="94" t="n">
-        <x:v>102.90</x:v>
-      </x:c>
-      <x:c r="F16" s="94" t="n">
-        <x:v>55566.00</x:v>
-      </x:c>
-      <x:c r="G16" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H16" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I16" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J16" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K16" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L16" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:60">
-      <x:c r="A17" s="92" t="n">
-        <x:v>8.00</x:v>
-      </x:c>
-      <x:c r="B17" s="93" t="str">
-        <x:v>Cupla HH 315 Termof</x:v>
-      </x:c>
-      <x:c r="C17" s="94" t="n">
-        <x:v>30.00</x:v>
-      </x:c>
-      <x:c r="D17" s="94" t="str">
-        <x:v>Unidad</x:v>
-      </x:c>
-      <x:c r="E17" s="94" t="n">
-        <x:v>313.60</x:v>
-      </x:c>
-      <x:c r="F17" s="94" t="n">
-        <x:v>9408.00</x:v>
-      </x:c>
-      <x:c r="G17" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H17" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I17" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J17" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K17" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L17" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:60">
-      <x:c r="A18" s="92" t="n">
-        <x:v>9.00</x:v>
-      </x:c>
-      <x:c r="B18" s="93" t="str">
-        <x:v>Mango Empotram H 200 Termof</x:v>
-      </x:c>
-      <x:c r="C18" s="94" t="n">
-        <x:v>400.00</x:v>
-      </x:c>
-      <x:c r="D18" s="94" t="str">
-        <x:v>Unidad</x:v>
-      </x:c>
-      <x:c r="E18" s="94" t="n">
-        <x:v>56.84</x:v>
-      </x:c>
-      <x:c r="F18" s="94" t="n">
-        <x:v>22736.00</x:v>
-      </x:c>
-      <x:c r="G18" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H18" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I18" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J18" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K18" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L18" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:60">
-      <x:c r="A19" s="92" t="n">
-        <x:v>10.00</x:v>
-      </x:c>
-      <x:c r="B19" s="93" t="str">
-        <x:v>Mango Empotram H 315 Termof</x:v>
-      </x:c>
-      <x:c r="C19" s="94" t="n">
-        <x:v>24.00</x:v>
-      </x:c>
-      <x:c r="D19" s="94" t="str">
-        <x:v>Unidad</x:v>
-      </x:c>
-      <x:c r="E19" s="94" t="n">
-        <x:v>171.50</x:v>
-      </x:c>
-      <x:c r="F19" s="94" t="n">
-        <x:v>4116.00</x:v>
-      </x:c>
-      <x:c r="G19" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H19" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I19" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J19" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K19" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L19" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:60">
-      <x:c r="A20" s="92" t="n">
-        <x:v>11.00</x:v>
-      </x:c>
-      <x:c r="B20" s="93" t="str">
-        <x:v>Marco y Tapa</x:v>
-      </x:c>
-      <x:c r="C20" s="94" t="n">
-        <x:v>200.00</x:v>
-      </x:c>
-      <x:c r="D20" s="94" t="str">
-        <x:v>Unidad</x:v>
-      </x:c>
-      <x:c r="E20" s="94" t="n">
-        <x:v>1078.00</x:v>
-      </x:c>
-      <x:c r="F20" s="94" t="n">
-        <x:v>215600.00</x:v>
-      </x:c>
-      <x:c r="G20" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H20" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I20" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J20" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K20" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L20" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:60">
-      <x:c r="A21" s="92" t="n">
-        <x:v>12.00</x:v>
-      </x:c>
-      <x:c r="B21" s="93" t="str">
-        <x:v>Caja Insp y Limp 200x200</x:v>
-      </x:c>
-      <x:c r="C21" s="94" t="n">
-        <x:v>65.00</x:v>
-      </x:c>
-      <x:c r="D21" s="94" t="str">
-        <x:v>Unidad</x:v>
-      </x:c>
-      <x:c r="E21" s="94" t="n">
-        <x:v>96.04</x:v>
-      </x:c>
-      <x:c r="F21" s="94" t="n">
-        <x:v>6242.60</x:v>
-      </x:c>
-      <x:c r="G21" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H21" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="I21" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="J21" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="K21" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="L21" s="94" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:60">
-      <x:c r="A22" s="130" t="s"/>
-      <x:c r="B22" s="131" t="s"/>
-      <x:c r="C22" s="132" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D22" s="132" t="s"/>
-      <x:c r="E22" s="133" t="s"/>
-      <x:c r="F22" s="134" t="n">
-        <x:v>2144365.61</x:v>
-      </x:c>
-      <x:c r="G22" s="133" t="s"/>
-      <x:c r="H22" s="134" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I22" s="133" t="s"/>
-      <x:c r="J22" s="134" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="K22" s="133" t="s"/>
-      <x:c r="L22" s="134" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:60">
-      <x:c r="A23" s="76" t="s"/>
-      <x:c r="B23" s="115" t="s"/>
-      <x:c r="C23" s="128" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D23" s="128" t="s"/>
-      <x:c r="E23" s="76" t="s"/>
-      <x:c r="F23" s="129" t="n">
+    </x:row>
+    <x:row r="29" spans="1:60">
+      <x:c r="B29" s="104" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C29" s="105" t="s"/>
+      <x:c r="D29" s="106" t="s"/>
+      <x:c r="E29" s="107" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:60">
+      <x:c r="B30" s="99" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C30" s="76" t="s"/>
+      <x:c r="D30" s="102" t="s"/>
+      <x:c r="E30" s="103" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:60">
+      <x:c r="B31" s="99" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C31" s="76" t="s"/>
+      <x:c r="D31" s="102" t="s"/>
+      <x:c r="E31" s="103" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:60">
+      <x:c r="B32" s="99" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C32" s="76" t="s"/>
+      <x:c r="D32" s="102" t="s"/>
+      <x:c r="E32" s="103" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:60">
+      <x:c r="B33" s="99" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C33" s="76" t="s"/>
+      <x:c r="D33" s="102" t="n">
         <x:v>0.00</x:v>
       </x:c>
-      <x:c r="G23" s="76" t="s"/>
-      <x:c r="H23" s="129" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I23" s="76" t="s"/>
-      <x:c r="J23" s="129" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="K23" s="76" t="s"/>
-      <x:c r="L23" s="129" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:60" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A24" s="80" t="s"/>
-      <x:c r="B24" s="124" t="s"/>
-      <x:c r="C24" s="125" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D24" s="125" t="s"/>
-      <x:c r="E24" s="126" t="s"/>
-      <x:c r="F24" s="127" t="n">
-        <x:v>2594682.39</x:v>
-      </x:c>
-      <x:c r="G24" s="126" t="s"/>
-      <x:c r="H24" s="127" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I24" s="126" t="s"/>
-      <x:c r="J24" s="127" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="K24" s="126" t="s"/>
-      <x:c r="L24" s="127" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:60" customFormat="1" ht="11.25" customHeight="1">
-      <x:c r="A25" s="76" t="s"/>
-      <x:c r="B25" s="115" t="s"/>
-      <x:c r="C25" s="121" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D25" s="122" t="s"/>
-      <x:c r="E25" s="123" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="F25" s="123" t="s"/>
-      <x:c r="G25" s="123" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H25" s="123" t="s"/>
-      <x:c r="I25" s="123" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J25" s="123" t="s"/>
-      <x:c r="K25" s="123" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L25" s="123" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
-      <x:c r="A26" s="76" t="s"/>
-      <x:c r="B26" s="115" t="s"/>
-      <x:c r="C26" s="111" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D26" s="119" t="s"/>
-      <x:c r="E26" s="120" t="str">
-        <x:v>7 DIAS FECHA DE FACTURA</x:v>
-      </x:c>
-      <x:c r="F26" s="120" t="s"/>
-      <x:c r="G26" s="120" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H26" s="120" t="s"/>
-      <x:c r="I26" s="120" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J26" s="120" t="s"/>
-      <x:c r="K26" s="120" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L26" s="120" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
-      <x:c r="A27" s="76" t="s"/>
-      <x:c r="B27" s="115" t="s"/>
-      <x:c r="C27" s="111" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D27" s="119" t="s"/>
-      <x:c r="E27" s="120" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="F27" s="120" t="s"/>
-      <x:c r="G27" s="120" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H27" s="120" t="s"/>
-      <x:c r="I27" s="120" t="s"/>
-      <x:c r="J27" s="120" t="s"/>
-      <x:c r="K27" s="120" t="s"/>
-      <x:c r="L27" s="120" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:60">
-      <x:c r="A28" s="76" t="s"/>
-      <x:c r="B28" s="115" t="s"/>
-      <x:c r="C28" s="116" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D28" s="117" t="s"/>
-      <x:c r="E28" s="118" t="str">
-        <x:v>4/1</x:v>
-      </x:c>
-      <x:c r="F28" s="118" t="s"/>
-      <x:c r="G28" s="118" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H28" s="118" t="s"/>
-      <x:c r="I28" s="118" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="J28" s="118" t="s"/>
-      <x:c r="K28" s="118" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L28" s="118" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:60">
-      <x:c r="A29" s="96" t="s"/>
-      <x:c r="B29" s="96" t="s"/>
-      <x:c r="C29" s="105" t="s"/>
-      <x:c r="D29" s="105" t="s"/>
-      <x:c r="E29" s="105" t="s"/>
-      <x:c r="F29" s="105" t="s"/>
-      <x:c r="G29" s="105" t="s"/>
-      <x:c r="H29" s="105" t="s"/>
-      <x:c r="I29" s="105" t="s"/>
-      <x:c r="J29" s="105" t="s"/>
-      <x:c r="K29" s="105" t="s"/>
-      <x:c r="L29" s="105" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
-      <x:c r="A30" s="113" t="str">
-        <x:v>Obs.Grales. : </x:v>
-      </x:c>
-      <x:c r="B30" s="114" t="s"/>
-      <x:c r="C30" s="112" t="s"/>
-      <x:c r="D30" s="88" t="s"/>
-      <x:c r="E30" s="88" t="s"/>
-      <x:c r="F30" s="88" t="s"/>
-      <x:c r="G30" s="88" t="s"/>
-      <x:c r="H30" s="88" t="s"/>
-      <x:c r="I30" s="88" t="s"/>
-      <x:c r="J30" s="88" t="s"/>
-      <x:c r="K30" s="88" t="s"/>
-      <x:c r="L30" s="88" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:60" customFormat="1" ht="9.95" customHeight="1">
-      <x:c r="A31" s="110" t="str">
-        <x:v>Monto previsto : 0</x:v>
-      </x:c>
-      <x:c r="B31" s="111" t="s"/>
-      <x:c r="C31" s="112" t="s"/>
-      <x:c r="D31" s="88" t="s"/>
-      <x:c r="E31" s="88" t="s"/>
-      <x:c r="F31" s="88" t="s"/>
-      <x:c r="G31" s="88" t="s"/>
-      <x:c r="H31" s="88" t="s"/>
-      <x:c r="I31" s="88" t="s"/>
-      <x:c r="J31" s="88" t="s"/>
-      <x:c r="K31" s="88" t="s"/>
-      <x:c r="L31" s="88" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:60" customFormat="1" ht="9.95" customHeight="1">
-      <x:c r="A32" s="110" t="str">
-        <x:v>Monto para compra : 0</x:v>
-      </x:c>
-      <x:c r="B32" s="111" t="s"/>
-      <x:c r="C32" s="112" t="s"/>
-      <x:c r="D32" s="88" t="s"/>
-      <x:c r="E32" s="88" t="s"/>
-      <x:c r="F32" s="88" t="s"/>
-      <x:c r="G32" s="88" t="s"/>
-      <x:c r="H32" s="88" t="s"/>
-      <x:c r="I32" s="88" t="s"/>
-      <x:c r="J32" s="88" t="s"/>
-      <x:c r="K32" s="88" t="s"/>
-      <x:c r="L32" s="88" t="s"/>
+      <x:c r="E33" s="103" t="s"/>
     </x:row>
     <x:row r="34" spans="1:60">
-      <x:c r="A34" s="109" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B34" s="109" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="B34" s="99" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C34" s="76" t="s"/>
+      <x:c r="D34" s="100" t="n">
+        <x:f>D30/D29</x:f>
+        <x:v>0.00</x:v>
+      </x:c>
+      <x:c r="E34" s="101" t="s"/>
     </x:row>
     <x:row r="35" spans="1:60">
-      <x:c r="A35" s="108" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B35" s="108" t="str">
-        <x:v>Andres 17/05/2013 0:00:00</x:v>
-      </x:c>
+      <x:c r="B35" s="99" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C35" s="76" t="s"/>
+      <x:c r="D35" s="100" t="n">
+        <x:f>1-(D33/D32)</x:f>
+        <x:v>0.00</x:v>
+      </x:c>
+      <x:c r="E35" s="101" t="s"/>
     </x:row>
     <x:row r="36" spans="1:60">
-      <x:c r="A36" s="108" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B36" s="108" t="str">
-        <x:v>Andres 17/05/2013 12:49:18</x:v>
-      </x:c>
+      <x:c r="B36" s="99" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C36" s="76" t="s"/>
+      <x:c r="D36" s="100" t="n">
+        <x:f>1-(D31/D29)</x:f>
+        <x:v>0.00</x:v>
+      </x:c>
+      <x:c r="E36" s="101" t="s"/>
     </x:row>
     <x:row r="37" spans="1:60">
-      <x:c r="A37" s="108" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B37" s="108" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:60">
-      <x:c r="B39" s="104" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C39" s="105" t="s"/>
-      <x:c r="D39" s="106" t="s"/>
-      <x:c r="E39" s="107" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:60">
-      <x:c r="B40" s="99" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C40" s="76" t="s"/>
-      <x:c r="D40" s="102" t="s"/>
-      <x:c r="E40" s="103" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:60">
-      <x:c r="B41" s="99" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C41" s="76" t="s"/>
-      <x:c r="D41" s="102" t="s"/>
-      <x:c r="E41" s="103" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:60">
-      <x:c r="B42" s="99" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C42" s="76" t="s"/>
-      <x:c r="D42" s="102" t="s"/>
-      <x:c r="E42" s="103" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:60">
-      <x:c r="B43" s="99" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C43" s="76" t="s"/>
-      <x:c r="D43" s="102" t="n">
+      <x:c r="B37" s="95" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C37" s="96" t="s"/>
+      <x:c r="D37" s="97" t="n">
+        <x:f>D29-D31</x:f>
         <x:v>0.00</x:v>
       </x:c>
-      <x:c r="E43" s="103" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:60">
-      <x:c r="B44" s="99" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C44" s="76" t="s"/>
-      <x:c r="D44" s="100" t="n">
-        <x:f>D40/D39</x:f>
-        <x:v>0.00</x:v>
-      </x:c>
-      <x:c r="E44" s="101" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:60">
-      <x:c r="B45" s="99" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C45" s="76" t="s"/>
-      <x:c r="D45" s="100" t="n">
-        <x:f>1-(D43/D42)</x:f>
-        <x:v>0.00</x:v>
-      </x:c>
-      <x:c r="E45" s="101" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:60">
-      <x:c r="B46" s="99" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C46" s="76" t="s"/>
-      <x:c r="D46" s="100" t="n">
-        <x:f>1-(D41/D39)</x:f>
-        <x:v>0.00</x:v>
-      </x:c>
-      <x:c r="E46" s="101" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:60">
-      <x:c r="B47" s="95" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C47" s="96" t="s"/>
-      <x:c r="D47" s="97" t="str">
-        <x:f>D39-D41</x:f>
-        <x:v/>
-      </x:c>
-      <x:c r="E47" s="98" t="s"/>
+      <x:c r="E37" s="98" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="55">
+  <x:mergeCells count="43">
     <x:mergeCell ref="A7:A9"/>
     <x:mergeCell ref="B7:B9"/>
     <x:mergeCell ref="C7:C9"/>
@@ -2442,50 +1946,38 @@
     <x:mergeCell ref="E7:F7"/>
     <x:mergeCell ref="G7:H7"/>
     <x:mergeCell ref="B5:D5"/>
-    <x:mergeCell ref="C22:D22"/>
-    <x:mergeCell ref="C23:D23"/>
-    <x:mergeCell ref="C24:D24"/>
-    <x:mergeCell ref="C25:D25"/>
-    <x:mergeCell ref="E25:F25"/>
-    <x:mergeCell ref="I7:J7"/>
-    <x:mergeCell ref="K7:L7"/>
+    <x:mergeCell ref="C12:D12"/>
+    <x:mergeCell ref="C13:D13"/>
+    <x:mergeCell ref="C14:D14"/>
+    <x:mergeCell ref="C15:D15"/>
+    <x:mergeCell ref="E15:F15"/>
     <x:mergeCell ref="E8:F8"/>
     <x:mergeCell ref="G8:H8"/>
-    <x:mergeCell ref="I8:J8"/>
-    <x:mergeCell ref="K8:L8"/>
-    <x:mergeCell ref="G25:H25"/>
-    <x:mergeCell ref="I25:J25"/>
-    <x:mergeCell ref="K25:L25"/>
-    <x:mergeCell ref="C26:D26"/>
-    <x:mergeCell ref="E26:F26"/>
-    <x:mergeCell ref="G26:H26"/>
-    <x:mergeCell ref="I26:J26"/>
-    <x:mergeCell ref="K26:L26"/>
-    <x:mergeCell ref="K27:L27"/>
-    <x:mergeCell ref="A28:B28"/>
-    <x:mergeCell ref="C28:D28"/>
-    <x:mergeCell ref="E28:F28"/>
-    <x:mergeCell ref="G28:H28"/>
-    <x:mergeCell ref="I28:J28"/>
-    <x:mergeCell ref="K28:L28"/>
-    <x:mergeCell ref="A27:B27"/>
-    <x:mergeCell ref="C27:D27"/>
-    <x:mergeCell ref="E27:F27"/>
-    <x:mergeCell ref="G27:H27"/>
-    <x:mergeCell ref="I27:J27"/>
-    <x:mergeCell ref="D45:E45"/>
-    <x:mergeCell ref="D46:E46"/>
-    <x:mergeCell ref="D47:E47"/>
-    <x:mergeCell ref="D40:E40"/>
-    <x:mergeCell ref="D41:E41"/>
-    <x:mergeCell ref="D42:E42"/>
-    <x:mergeCell ref="D43:E43"/>
-    <x:mergeCell ref="D44:E44"/>
-    <x:mergeCell ref="A29:B29"/>
-    <x:mergeCell ref="A30:B30"/>
-    <x:mergeCell ref="A31:B31"/>
-    <x:mergeCell ref="A32:B32"/>
-    <x:mergeCell ref="D39:E39"/>
+    <x:mergeCell ref="G15:H15"/>
+    <x:mergeCell ref="C16:D16"/>
+    <x:mergeCell ref="E16:F16"/>
+    <x:mergeCell ref="G16:H16"/>
+    <x:mergeCell ref="A18:B18"/>
+    <x:mergeCell ref="C18:D18"/>
+    <x:mergeCell ref="E18:F18"/>
+    <x:mergeCell ref="G18:H18"/>
+    <x:mergeCell ref="A17:B17"/>
+    <x:mergeCell ref="C17:D17"/>
+    <x:mergeCell ref="E17:F17"/>
+    <x:mergeCell ref="G17:H17"/>
+    <x:mergeCell ref="D35:E35"/>
+    <x:mergeCell ref="D36:E36"/>
+    <x:mergeCell ref="D37:E37"/>
+    <x:mergeCell ref="D30:E30"/>
+    <x:mergeCell ref="D31:E31"/>
+    <x:mergeCell ref="D32:E32"/>
+    <x:mergeCell ref="D33:E33"/>
+    <x:mergeCell ref="D34:E34"/>
+    <x:mergeCell ref="A19:B19"/>
+    <x:mergeCell ref="A20:B20"/>
+    <x:mergeCell ref="A21:B21"/>
+    <x:mergeCell ref="A22:B22"/>
+    <x:mergeCell ref="D29:E29"/>
   </x:mergeCells>
   <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ProntoMVC/Documentos/archivo.xlsx
+++ b/ProntoMVC/Documentos/archivo.xlsx
@@ -1499,7 +1499,7 @@
       <x:c r="A2" s="77" t="s"/>
       <x:c r="B2" s="78" t="s"/>
       <x:c r="E2" s="68" t="str">
-        <x:v>Comparativa N°29</x:v>
+        <x:v>Comparativa N°1</x:v>
       </x:c>
       <x:c r="F2" s="69" t="s"/>
       <x:c r="G2" s="69" t="s"/>
@@ -1509,7 +1509,7 @@
       <x:c r="B3" s="79" t="s"/>
       <x:c r="C3" s="80" t="s"/>
       <x:c r="E3" s="68" t="str">
-        <x:v>Fecha 22/02/2015 0:00:00</x:v>
+        <x:v>Fecha 17/05/2013 0:00:00</x:v>
       </x:c>
       <x:c r="F3" s="69" t="s"/>
       <x:c r="G3" s="69" t="s"/>
@@ -1518,7 +1518,7 @@
     <x:row r="4" spans="1:60" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="B4" s="81" t="s"/>
       <x:c r="E4" s="82" t="str">
-        <x:v>Comprador: superadmin</x:v>
+        <x:v>Comprador: Claudio</x:v>
       </x:c>
       <x:c r="F4" s="83" t="s"/>
       <x:c r="G4" s="83" t="s"/>
@@ -1527,7 +1527,7 @@
     <x:row r="5" spans="1:60" customFormat="1" ht="21.75" customHeight="1">
       <x:c r="A5" s="85" t="s"/>
       <x:c r="B5" s="86" t="str">
-        <x:v>Obra/s : Pavimentacion R-8</x:v>
+        <x:v>Obra/s : Adrogue Norte - Buenos Aires</x:v>
       </x:c>
       <x:c r="C5" s="86" t="s"/>
       <x:c r="D5" s="86" t="s"/>
@@ -1539,7 +1539,7 @@
     <x:row r="6" spans="1:60" customFormat="1" ht="21.75" customHeight="1">
       <x:c r="A6" s="85" t="s"/>
       <x:c r="B6" s="87" t="str">
-        <x:v>RM / LA : 139</x:v>
+        <x:v>RM / LA : 227</x:v>
       </x:c>
       <x:c r="D6" s="88" t="s"/>
       <x:c r="E6" s="76" t="s"/>
@@ -1561,13 +1561,21 @@
         <x:v>Unidad </x:v>
       </x:c>
       <x:c r="E7" s="89" t="str">
-        <x:v>Proveedor 2</x:v>
+        <x:v>NICOLL S.A.</x:v>
       </x:c>
       <x:c r="F7" s="90" t="s"/>
-      <x:c r="G7" s="89" t="str">
-        <x:v>ACARAYE</x:v>
+      <x:c r="G7" s="89" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H7" s="90" t="s"/>
+      <x:c r="I7" s="89" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J7" s="90" t="s"/>
+      <x:c r="K7" s="89" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L7" s="90" t="s"/>
     </x:row>
     <x:row r="8" spans="1:60">
       <x:c r="A8" s="91" t="s"/>
@@ -1582,6 +1590,14 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="92" t="s"/>
+      <x:c r="I8" s="92" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J8" s="92" t="s"/>
+      <x:c r="K8" s="92" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L8" s="92" t="s"/>
     </x:row>
     <x:row r="9" spans="1:60" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="A9" s="91" t="s"/>
@@ -1594,11 +1610,23 @@
       <x:c r="F9" s="92" t="str">
         <x:v>Total </x:v>
       </x:c>
-      <x:c r="G9" s="92" t="str">
-        <x:v>Unitario </x:v>
-      </x:c>
-      <x:c r="H9" s="92" t="str">
-        <x:v>Total </x:v>
+      <x:c r="G9" s="92" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H9" s="92" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I9" s="92" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J9" s="92" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K9" s="92" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="L9" s="92" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:60" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
@@ -1606,25 +1634,37 @@
         <x:v>1.00</x:v>
       </x:c>
       <x:c r="B10" s="93" t="str">
-        <x:v>Articulo 2 - Pinturas</x:v>
+        <x:v>Ramal 45° 315x110</x:v>
       </x:c>
       <x:c r="C10" s="94" t="n">
-        <x:v>0.00</x:v>
+        <x:v>138.00</x:v>
       </x:c>
       <x:c r="D10" s="94" t="str">
-        <x:v/>
+        <x:v>Unidad</x:v>
       </x:c>
       <x:c r="E10" s="94" t="n">
-        <x:v>90.00</x:v>
+        <x:v>325.26</x:v>
       </x:c>
       <x:c r="F10" s="94" t="n">
-        <x:v>0.00</x:v>
-      </x:c>
-      <x:c r="G10" s="94" t="n">
-        <x:v>100.00</x:v>
-      </x:c>
-      <x:c r="H10" s="94" t="n">
-        <x:v>0.00</x:v>
+        <x:v>44885.88</x:v>
+      </x:c>
+      <x:c r="G10" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H10" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I10" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J10" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K10" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L10" s="94" t="str">
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:60">
@@ -1632,309 +1672,765 @@
         <x:v>2.00</x:v>
       </x:c>
       <x:c r="B11" s="93" t="str">
-        <x:v>Componente 1</x:v>
+        <x:v>Cupla HH 200 Termof</x:v>
       </x:c>
       <x:c r="C11" s="94" t="n">
+        <x:v>540.00</x:v>
+      </x:c>
+      <x:c r="D11" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E11" s="94" t="n">
+        <x:v>84.57</x:v>
+      </x:c>
+      <x:c r="F11" s="94" t="n">
+        <x:v>45666.18</x:v>
+      </x:c>
+      <x:c r="G11" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H11" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I11" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J11" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K11" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L11" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:60">
+      <x:c r="A12" s="92" t="n">
+        <x:v>3.00</x:v>
+      </x:c>
+      <x:c r="B12" s="93" t="str">
+        <x:v>Cupla HH 315 Termof</x:v>
+      </x:c>
+      <x:c r="C12" s="94" t="n">
+        <x:v>30.00</x:v>
+      </x:c>
+      <x:c r="D12" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E12" s="94" t="n">
+        <x:v>210.78</x:v>
+      </x:c>
+      <x:c r="F12" s="94" t="n">
+        <x:v>6323.40</x:v>
+      </x:c>
+      <x:c r="G12" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H12" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I12" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J12" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K12" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L12" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:60" thickBot="1">
+      <x:c r="A13" s="92" t="n">
+        <x:v>4.00</x:v>
+      </x:c>
+      <x:c r="B13" s="93" t="str">
+        <x:v>Mango Empotram H 200 Termof</x:v>
+      </x:c>
+      <x:c r="C13" s="94" t="n">
+        <x:v>400.00</x:v>
+      </x:c>
+      <x:c r="D13" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E13" s="94" t="n">
+        <x:v>57.56</x:v>
+      </x:c>
+      <x:c r="F13" s="94" t="n">
+        <x:v>23024.40</x:v>
+      </x:c>
+      <x:c r="G13" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H13" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I13" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J13" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K13" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L13" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:60">
+      <x:c r="A14" s="92" t="n">
+        <x:v>5.00</x:v>
+      </x:c>
+      <x:c r="B14" s="93" t="str">
+        <x:v>Mango Empotram H 315 Termof</x:v>
+      </x:c>
+      <x:c r="C14" s="94" t="n">
+        <x:v>24.00</x:v>
+      </x:c>
+      <x:c r="D14" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E14" s="94" t="n">
+        <x:v>165.76</x:v>
+      </x:c>
+      <x:c r="F14" s="94" t="n">
+        <x:v>3978.32</x:v>
+      </x:c>
+      <x:c r="G14" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H14" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I14" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J14" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K14" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L14" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:60">
+      <x:c r="A15" s="92" t="n">
+        <x:v>6.00</x:v>
+      </x:c>
+      <x:c r="B15" s="93" t="str">
+        <x:v>Marco y Tapa</x:v>
+      </x:c>
+      <x:c r="C15" s="94" t="n">
+        <x:v>200.00</x:v>
+      </x:c>
+      <x:c r="D15" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E15" s="94" t="n">
         <x:v>0.00</x:v>
       </x:c>
-      <x:c r="D11" s="94" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="E11" s="94" t="n">
-        <x:v>210.00</x:v>
-      </x:c>
-      <x:c r="F11" s="94" t="n">
+      <x:c r="F15" s="94" t="n">
         <x:v>0.00</x:v>
       </x:c>
-      <x:c r="G11" s="94" t="n">
-        <x:v>200.00</x:v>
-      </x:c>
-      <x:c r="H11" s="94" t="n">
+      <x:c r="G15" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H15" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I15" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J15" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K15" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L15" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:60">
+      <x:c r="A16" s="92" t="n">
+        <x:v>7.00</x:v>
+      </x:c>
+      <x:c r="B16" s="93" t="str">
+        <x:v>Caja Insp y Limp 200x200</x:v>
+      </x:c>
+      <x:c r="C16" s="94" t="n">
+        <x:v>65.00</x:v>
+      </x:c>
+      <x:c r="D16" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E16" s="94" t="n">
         <x:v>0.00</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:60">
-      <x:c r="A12" s="130" t="s"/>
-      <x:c r="B12" s="131" t="s"/>
-      <x:c r="C12" s="132" t="s">
+      <x:c r="F16" s="94" t="n">
+        <x:v>0.00</x:v>
+      </x:c>
+      <x:c r="G16" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H16" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I16" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J16" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K16" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L16" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:60">
+      <x:c r="A17" s="92" t="n">
+        <x:v>8.00</x:v>
+      </x:c>
+      <x:c r="B17" s="93" t="str">
+        <x:v>Tubo Cloaca 200x5.9x6M</x:v>
+      </x:c>
+      <x:c r="C17" s="94" t="n">
+        <x:v>3156.00</x:v>
+      </x:c>
+      <x:c r="D17" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E17" s="94" t="n">
+        <x:v>404.48</x:v>
+      </x:c>
+      <x:c r="F17" s="94" t="n">
+        <x:v>1276538.88</x:v>
+      </x:c>
+      <x:c r="G17" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H17" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I17" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J17" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K17" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L17" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:60">
+      <x:c r="A18" s="92" t="n">
+        <x:v>9.00</x:v>
+      </x:c>
+      <x:c r="B18" s="93" t="str">
+        <x:v>Tubo K10 225x10.8x6M</x:v>
+      </x:c>
+      <x:c r="C18" s="94" t="n">
+        <x:v>1.00</x:v>
+      </x:c>
+      <x:c r="D18" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E18" s="94" t="n">
+        <x:v>794.29</x:v>
+      </x:c>
+      <x:c r="F18" s="94" t="n">
+        <x:v>794.29</x:v>
+      </x:c>
+      <x:c r="G18" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H18" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I18" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J18" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K18" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L18" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:60">
+      <x:c r="A19" s="92" t="n">
+        <x:v>10.00</x:v>
+      </x:c>
+      <x:c r="B19" s="93" t="str">
+        <x:v>Tubo Cloaca 315x9.2x6M</x:v>
+      </x:c>
+      <x:c r="C19" s="94" t="n">
+        <x:v>180.00</x:v>
+      </x:c>
+      <x:c r="D19" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E19" s="94" t="n">
+        <x:v>990.05</x:v>
+      </x:c>
+      <x:c r="F19" s="94" t="n">
+        <x:v>178209.00</x:v>
+      </x:c>
+      <x:c r="G19" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H19" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I19" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J19" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K19" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L19" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:60">
+      <x:c r="A20" s="92" t="n">
+        <x:v>11.00</x:v>
+      </x:c>
+      <x:c r="B20" s="93" t="str">
+        <x:v>Tubo Cloaca 110x3.2x2M</x:v>
+      </x:c>
+      <x:c r="C20" s="94" t="n">
+        <x:v>11000.00</x:v>
+      </x:c>
+      <x:c r="D20" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E20" s="94" t="n">
+        <x:v>38.42</x:v>
+      </x:c>
+      <x:c r="F20" s="94" t="n">
+        <x:v>422614.50</x:v>
+      </x:c>
+      <x:c r="G20" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H20" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I20" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J20" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K20" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L20" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:60">
+      <x:c r="A21" s="92" t="n">
+        <x:v>12.00</x:v>
+      </x:c>
+      <x:c r="B21" s="93" t="str">
+        <x:v>Ramal 45° 200x110</x:v>
+      </x:c>
+      <x:c r="C21" s="94" t="n">
+        <x:v>1937.00</x:v>
+      </x:c>
+      <x:c r="D21" s="94" t="str">
+        <x:v>Unidad</x:v>
+      </x:c>
+      <x:c r="E21" s="94" t="n">
+        <x:v>73.48</x:v>
+      </x:c>
+      <x:c r="F21" s="94" t="n">
+        <x:v>142330.76</x:v>
+      </x:c>
+      <x:c r="G21" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H21" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="I21" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="J21" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="K21" s="94" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="L21" s="94" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:60">
+      <x:c r="A22" s="130" t="s"/>
+      <x:c r="B22" s="131" t="s"/>
+      <x:c r="C22" s="132" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D12" s="132" t="str">
-        <x:v>Bonificacion </x:v>
-      </x:c>
-      <x:c r="E12" s="133" t="s"/>
-      <x:c r="F12" s="134" t="n">
-        <x:v>300.00</x:v>
-      </x:c>
-      <x:c r="G12" s="133" t="s"/>
-      <x:c r="H12" s="134" t="n">
-        <x:v>300.00</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:60" thickBot="1">
-      <x:c r="A13" s="76" t="s"/>
-      <x:c r="B13" s="115" t="s"/>
-      <x:c r="C13" s="128" t="s">
+      <x:c r="D22" s="132" t="s"/>
+      <x:c r="E22" s="133" t="s"/>
+      <x:c r="F22" s="134" t="n">
+        <x:v>2194695.44</x:v>
+      </x:c>
+      <x:c r="G22" s="133" t="s"/>
+      <x:c r="H22" s="134" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I22" s="133" t="s"/>
+      <x:c r="J22" s="134" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K22" s="133" t="s"/>
+      <x:c r="L22" s="134" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:60">
+      <x:c r="A23" s="76" t="s"/>
+      <x:c r="B23" s="115" t="s"/>
+      <x:c r="C23" s="128" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D13" s="128" t="str">
-        <x:v>TOTAL </x:v>
-      </x:c>
-      <x:c r="E13" s="76" t="s"/>
-      <x:c r="F13" s="129" t="n">
+      <x:c r="D23" s="128" t="s"/>
+      <x:c r="E23" s="76" t="s"/>
+      <x:c r="F23" s="129" t="n">
         <x:v>0.00</x:v>
       </x:c>
-      <x:c r="G13" s="76" t="s"/>
-      <x:c r="H13" s="129" t="n">
+      <x:c r="G23" s="76" t="s"/>
+      <x:c r="H23" s="129" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I23" s="76" t="s"/>
+      <x:c r="J23" s="129" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K23" s="76" t="s"/>
+      <x:c r="L23" s="129" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:60" customFormat="1" ht="12" customHeight="1">
+      <x:c r="A24" s="80" t="s"/>
+      <x:c r="B24" s="124" t="s"/>
+      <x:c r="C24" s="125" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D24" s="125" t="s"/>
+      <x:c r="E24" s="126" t="s"/>
+      <x:c r="F24" s="127" t="n">
+        <x:v>2655581.48</x:v>
+      </x:c>
+      <x:c r="G24" s="126" t="s"/>
+      <x:c r="H24" s="127" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I24" s="126" t="s"/>
+      <x:c r="J24" s="127" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K24" s="126" t="s"/>
+      <x:c r="L24" s="127" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:60" customFormat="1" ht="11.25" customHeight="1">
+      <x:c r="A25" s="76" t="s"/>
+      <x:c r="B25" s="115" t="s"/>
+      <x:c r="C25" s="121" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D25" s="122" t="s"/>
+      <x:c r="E25" s="123" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="F25" s="123" t="s"/>
+      <x:c r="G25" s="123" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H25" s="123" t="s"/>
+      <x:c r="I25" s="123" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J25" s="123" t="s"/>
+      <x:c r="K25" s="123" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L25" s="123" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
+      <x:c r="A26" s="76" t="s"/>
+      <x:c r="B26" s="115" t="s"/>
+      <x:c r="C26" s="111" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D26" s="119" t="s"/>
+      <x:c r="E26" s="120" t="str">
+        <x:v>7 DIAS FECHA DE FACTURA</x:v>
+      </x:c>
+      <x:c r="F26" s="120" t="s"/>
+      <x:c r="G26" s="120" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H26" s="120" t="s"/>
+      <x:c r="I26" s="120" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J26" s="120" t="s"/>
+      <x:c r="K26" s="120" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L26" s="120" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
+      <x:c r="A27" s="76" t="s"/>
+      <x:c r="B27" s="115" t="s"/>
+      <x:c r="C27" s="111" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D27" s="119" t="s"/>
+      <x:c r="E27" s="120" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="F27" s="120" t="s"/>
+      <x:c r="G27" s="120" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H27" s="120" t="s"/>
+      <x:c r="I27" s="120" t="s"/>
+      <x:c r="J27" s="120" t="s"/>
+      <x:c r="K27" s="120" t="s"/>
+      <x:c r="L27" s="120" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:60">
+      <x:c r="A28" s="76" t="s"/>
+      <x:c r="B28" s="115" t="s"/>
+      <x:c r="C28" s="116" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D28" s="117" t="s"/>
+      <x:c r="E28" s="118" t="str">
+        <x:v>3/1</x:v>
+      </x:c>
+      <x:c r="F28" s="118" t="s"/>
+      <x:c r="G28" s="118" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H28" s="118" t="s"/>
+      <x:c r="I28" s="118" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J28" s="118" t="s"/>
+      <x:c r="K28" s="118" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L28" s="118" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:60">
+      <x:c r="A29" s="96" t="s"/>
+      <x:c r="B29" s="96" t="s"/>
+      <x:c r="C29" s="105" t="s"/>
+      <x:c r="D29" s="105" t="s"/>
+      <x:c r="E29" s="105" t="s"/>
+      <x:c r="F29" s="105" t="s"/>
+      <x:c r="G29" s="105" t="s"/>
+      <x:c r="H29" s="105" t="s"/>
+      <x:c r="I29" s="105" t="s"/>
+      <x:c r="J29" s="105" t="s"/>
+      <x:c r="K29" s="105" t="s"/>
+      <x:c r="L29" s="105" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
+      <x:c r="A30" s="113" t="str">
+        <x:v>Obs.Grales. : </x:v>
+      </x:c>
+      <x:c r="B30" s="114" t="s"/>
+      <x:c r="C30" s="112" t="s"/>
+      <x:c r="D30" s="88" t="s"/>
+      <x:c r="E30" s="88" t="s"/>
+      <x:c r="F30" s="88" t="s"/>
+      <x:c r="G30" s="88" t="s"/>
+      <x:c r="H30" s="88" t="s"/>
+      <x:c r="I30" s="88" t="s"/>
+      <x:c r="J30" s="88" t="s"/>
+      <x:c r="K30" s="88" t="s"/>
+      <x:c r="L30" s="88" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:60" customFormat="1" ht="9.95" customHeight="1">
+      <x:c r="A31" s="110" t="str">
+        <x:v>Monto previsto : 0</x:v>
+      </x:c>
+      <x:c r="B31" s="111" t="s"/>
+      <x:c r="C31" s="112" t="s"/>
+      <x:c r="D31" s="88" t="s"/>
+      <x:c r="E31" s="88" t="s"/>
+      <x:c r="F31" s="88" t="s"/>
+      <x:c r="G31" s="88" t="s"/>
+      <x:c r="H31" s="88" t="s"/>
+      <x:c r="I31" s="88" t="s"/>
+      <x:c r="J31" s="88" t="s"/>
+      <x:c r="K31" s="88" t="s"/>
+      <x:c r="L31" s="88" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:60" customFormat="1" ht="9.95" customHeight="1">
+      <x:c r="A32" s="110" t="str">
+        <x:v>Monto para compra : 0</x:v>
+      </x:c>
+      <x:c r="B32" s="111" t="s"/>
+      <x:c r="C32" s="112" t="s"/>
+      <x:c r="D32" s="88" t="s"/>
+      <x:c r="E32" s="88" t="s"/>
+      <x:c r="F32" s="88" t="s"/>
+      <x:c r="G32" s="88" t="s"/>
+      <x:c r="H32" s="88" t="s"/>
+      <x:c r="I32" s="88" t="s"/>
+      <x:c r="J32" s="88" t="s"/>
+      <x:c r="K32" s="88" t="s"/>
+      <x:c r="L32" s="88" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:60">
+      <x:c r="A34" s="109" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B34" s="109" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:60">
+      <x:c r="A35" s="108" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B35" s="108" t="str">
+        <x:v>Claudio 17/05/2013 0:00:00</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:60">
+      <x:c r="A36" s="108" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B36" s="108" t="str">
+        <x:v>Claudio 17/05/2013 12:49:18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:60">
+      <x:c r="A37" s="108" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B37" s="108" t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:60">
+      <x:c r="B39" s="104" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C39" s="105" t="s"/>
+      <x:c r="D39" s="106" t="s"/>
+      <x:c r="E39" s="107" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:60">
+      <x:c r="B40" s="99" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C40" s="76" t="s"/>
+      <x:c r="D40" s="102" t="s"/>
+      <x:c r="E40" s="103" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:60">
+      <x:c r="B41" s="99" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C41" s="76" t="s"/>
+      <x:c r="D41" s="102" t="s"/>
+      <x:c r="E41" s="103" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:60">
+      <x:c r="B42" s="99" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C42" s="76" t="s"/>
+      <x:c r="D42" s="102" t="s"/>
+      <x:c r="E42" s="103" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:60">
+      <x:c r="B43" s="99" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C43" s="76" t="s"/>
+      <x:c r="D43" s="102" t="n">
         <x:v>0.00</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:60" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A14" s="80" t="s"/>
-      <x:c r="B14" s="124" t="s"/>
-      <x:c r="C14" s="125" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D14" s="125" t="s"/>
-      <x:c r="E14" s="126" t="s"/>
-      <x:c r="F14" s="127" t="n">
-        <x:v>318.90</x:v>
-      </x:c>
-      <x:c r="G14" s="126" t="s"/>
-      <x:c r="H14" s="127" t="n">
-        <x:v>321.00</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:60" customFormat="1" ht="11.25" customHeight="1">
-      <x:c r="A15" s="76" t="s"/>
-      <x:c r="B15" s="115" t="s"/>
-      <x:c r="C15" s="121" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D15" s="122" t="s"/>
-      <x:c r="E15" s="123" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="F15" s="123" t="s"/>
-      <x:c r="G15" s="123" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H15" s="123" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
-      <x:c r="A16" s="76" t="s"/>
-      <x:c r="B16" s="115" t="s"/>
-      <x:c r="C16" s="111" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D16" s="119" t="s"/>
-      <x:c r="E16" s="120" t="str">
-        <x:v>15 días fecha factura</x:v>
-      </x:c>
-      <x:c r="F16" s="120" t="s"/>
-      <x:c r="G16" s="120" t="str">
-        <x:v>45 días fecha factura</x:v>
-      </x:c>
-      <x:c r="H16" s="120" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
-      <x:c r="A17" s="76" t="s"/>
-      <x:c r="B17" s="115" t="s"/>
-      <x:c r="C17" s="111" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D17" s="119" t="s"/>
-      <x:c r="E17" s="120" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="F17" s="120" t="s"/>
-      <x:c r="G17" s="120" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="H17" s="120" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:60">
-      <x:c r="A18" s="76" t="s"/>
-      <x:c r="B18" s="115" t="s"/>
-      <x:c r="C18" s="116" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D18" s="117" t="s"/>
-      <x:c r="E18" s="118" t="str">
-        <x:v>19/2</x:v>
-      </x:c>
-      <x:c r="F18" s="118" t="s"/>
-      <x:c r="G18" s="118" t="str">
-        <x:v>19/1</x:v>
-      </x:c>
-      <x:c r="H18" s="118" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:60">
-      <x:c r="A19" s="96" t="s"/>
-      <x:c r="B19" s="96" t="s"/>
-      <x:c r="C19" s="105" t="s"/>
-      <x:c r="D19" s="105" t="s"/>
-      <x:c r="E19" s="105" t="s"/>
-      <x:c r="F19" s="105" t="s"/>
-      <x:c r="G19" s="105" t="s"/>
-      <x:c r="H19" s="105" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:60" customFormat="1" ht="24.95" customHeight="1">
-      <x:c r="A20" s="113" t="str">
-        <x:v>Obs.Grales. : </x:v>
-      </x:c>
-      <x:c r="B20" s="114" t="s"/>
-      <x:c r="C20" s="112" t="s"/>
-      <x:c r="D20" s="88" t="s"/>
-      <x:c r="E20" s="88" t="s"/>
-      <x:c r="F20" s="88" t="s"/>
-      <x:c r="G20" s="88" t="s"/>
-      <x:c r="H20" s="88" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:60" customFormat="1" ht="9.95" customHeight="1">
-      <x:c r="A21" s="110" t="str">
-        <x:v>Monto previsto : 0</x:v>
-      </x:c>
-      <x:c r="B21" s="111" t="s"/>
-      <x:c r="C21" s="112" t="s"/>
-      <x:c r="D21" s="88" t="s"/>
-      <x:c r="E21" s="88" t="s"/>
-      <x:c r="F21" s="88" t="s"/>
-      <x:c r="G21" s="88" t="s"/>
-      <x:c r="H21" s="88" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:60" customFormat="1" ht="9.95" customHeight="1">
-      <x:c r="A22" s="110" t="str">
-        <x:v>Monto para compra : 0</x:v>
-      </x:c>
-      <x:c r="B22" s="111" t="s"/>
-      <x:c r="C22" s="112" t="s"/>
-      <x:c r="D22" s="88" t="s"/>
-      <x:c r="E22" s="88" t="s"/>
-      <x:c r="F22" s="88" t="s"/>
-      <x:c r="G22" s="88" t="s"/>
-      <x:c r="H22" s="88" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:60">
-      <x:c r="A24" s="109" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B24" s="109" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:60">
-      <x:c r="A25" s="108" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B25" s="108" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:60">
-      <x:c r="A26" s="108" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B26" s="108" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:60">
-      <x:c r="A27" s="108" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B27" s="108" t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:60">
-      <x:c r="B29" s="104" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C29" s="105" t="s"/>
-      <x:c r="D29" s="106" t="s"/>
-      <x:c r="E29" s="107" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:60">
-      <x:c r="B30" s="99" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C30" s="76" t="s"/>
-      <x:c r="D30" s="102" t="s"/>
-      <x:c r="E30" s="103" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:60">
-      <x:c r="B31" s="99" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C31" s="76" t="s"/>
-      <x:c r="D31" s="102" t="s"/>
-      <x:c r="E31" s="103" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:60">
-      <x:c r="B32" s="99" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C32" s="76" t="s"/>
-      <x:c r="D32" s="102" t="s"/>
-      <x:c r="E32" s="103" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:60">
-      <x:c r="B33" s="99" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C33" s="76" t="s"/>
-      <x:c r="D33" s="102" t="n">
+      <x:c r="E43" s="103" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:60">
+      <x:c r="B44" s="99" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C44" s="76" t="s"/>
+      <x:c r="D44" s="100" t="n">
+        <x:f>D40/D39</x:f>
         <x:v>0.00</x:v>
       </x:c>
-      <x:c r="E33" s="103" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:60">
-      <x:c r="B34" s="99" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C34" s="76" t="s"/>
-      <x:c r="D34" s="100" t="n">
-        <x:f>D30/D29</x:f>
+      <x:c r="E44" s="101" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:60">
+      <x:c r="B45" s="99" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C45" s="76" t="s"/>
+      <x:c r="D45" s="100" t="n">
+        <x:f>1-(D43/D42)</x:f>
         <x:v>0.00</x:v>
       </x:c>
-      <x:c r="E34" s="101" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:60">
-      <x:c r="B35" s="99" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C35" s="76" t="s"/>
-      <x:c r="D35" s="100" t="n">
-        <x:f>1-(D33/D32)</x:f>
+      <x:c r="E45" s="101" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:60">
+      <x:c r="B46" s="99" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C46" s="76" t="s"/>
+      <x:c r="D46" s="100" t="n">
+        <x:f>1-(D41/D39)</x:f>
         <x:v>0.00</x:v>
       </x:c>
-      <x:c r="E35" s="101" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:60">
-      <x:c r="B36" s="99" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C36" s="76" t="s"/>
-      <x:c r="D36" s="100" t="n">
-        <x:f>1-(D31/D29)</x:f>
-        <x:v>0.00</x:v>
-      </x:c>
-      <x:c r="E36" s="101" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:60">
-      <x:c r="B37" s="95" t="s">
+      <x:c r="E46" s="101" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:60">
+      <x:c r="B47" s="95" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C37" s="96" t="s"/>
-      <x:c r="D37" s="97" t="n">
-        <x:f>D29-D31</x:f>
-        <x:v>0.00</x:v>
-      </x:c>
-      <x:c r="E37" s="98" t="s"/>
+      <x:c r="C47" s="96" t="s"/>
+      <x:c r="D47" s="97" t="str">
+        <x:f>D39-D41</x:f>
+        <x:v/>
+      </x:c>
+      <x:c r="E47" s="98" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="43">
+  <x:mergeCells count="55">
     <x:mergeCell ref="A7:A9"/>
     <x:mergeCell ref="B7:B9"/>
     <x:mergeCell ref="C7:C9"/>
@@ -1946,38 +2442,50 @@
     <x:mergeCell ref="E7:F7"/>
     <x:mergeCell ref="G7:H7"/>
     <x:mergeCell ref="B5:D5"/>
-    <x:mergeCell ref="C12:D12"/>
-    <x:mergeCell ref="C13:D13"/>
-    <x:mergeCell ref="C14:D14"/>
-    <x:mergeCell ref="C15:D15"/>
-    <x:mergeCell ref="E15:F15"/>
+    <x:mergeCell ref="C22:D22"/>
+    <x:mergeCell ref="C23:D23"/>
+    <x:mergeCell ref="C24:D24"/>
+    <x:mergeCell ref="C25:D25"/>
+    <x:mergeCell ref="E25:F25"/>
+    <x:mergeCell ref="I7:J7"/>
+    <x:mergeCell ref="K7:L7"/>
     <x:mergeCell ref="E8:F8"/>
     <x:mergeCell ref="G8:H8"/>
-    <x:mergeCell ref="G15:H15"/>
-    <x:mergeCell ref="C16:D16"/>
-    <x:mergeCell ref="E16:F16"/>
-    <x:mergeCell ref="G16:H16"/>
-    <x:mergeCell ref="A18:B18"/>
-    <x:mergeCell ref="C18:D18"/>
-    <x:mergeCell ref="E18:F18"/>
-    <x:mergeCell ref="G18:H18"/>
-    <x:mergeCell ref="A17:B17"/>
-    <x:mergeCell ref="C17:D17"/>
-    <x:mergeCell ref="E17:F17"/>
-    <x:mergeCell ref="G17:H17"/>
-    <x:mergeCell ref="D35:E35"/>
-    <x:mergeCell ref="D36:E36"/>
-    <x:mergeCell ref="D37:E37"/>
-    <x:mergeCell ref="D30:E30"/>
-    <x:mergeCell ref="D31:E31"/>
-    <x:mergeCell ref="D32:E32"/>
-    <x:mergeCell ref="D33:E33"/>
-    <x:mergeCell ref="D34:E34"/>
-    <x:mergeCell ref="A19:B19"/>
-    <x:mergeCell ref="A20:B20"/>
-    <x:mergeCell ref="A21:B21"/>
-    <x:mergeCell ref="A22:B22"/>
-    <x:mergeCell ref="D29:E29"/>
+    <x:mergeCell ref="I8:J8"/>
+    <x:mergeCell ref="K8:L8"/>
+    <x:mergeCell ref="G25:H25"/>
+    <x:mergeCell ref="I25:J25"/>
+    <x:mergeCell ref="K25:L25"/>
+    <x:mergeCell ref="C26:D26"/>
+    <x:mergeCell ref="E26:F26"/>
+    <x:mergeCell ref="G26:H26"/>
+    <x:mergeCell ref="I26:J26"/>
+    <x:mergeCell ref="K26:L26"/>
+    <x:mergeCell ref="K27:L27"/>
+    <x:mergeCell ref="A28:B28"/>
+    <x:mergeCell ref="C28:D28"/>
+    <x:mergeCell ref="E28:F28"/>
+    <x:mergeCell ref="G28:H28"/>
+    <x:mergeCell ref="I28:J28"/>
+    <x:mergeCell ref="K28:L28"/>
+    <x:mergeCell ref="A27:B27"/>
+    <x:mergeCell ref="C27:D27"/>
+    <x:mergeCell ref="E27:F27"/>
+    <x:mergeCell ref="G27:H27"/>
+    <x:mergeCell ref="I27:J27"/>
+    <x:mergeCell ref="D45:E45"/>
+    <x:mergeCell ref="D46:E46"/>
+    <x:mergeCell ref="D47:E47"/>
+    <x:mergeCell ref="D40:E40"/>
+    <x:mergeCell ref="D41:E41"/>
+    <x:mergeCell ref="D42:E42"/>
+    <x:mergeCell ref="D43:E43"/>
+    <x:mergeCell ref="D44:E44"/>
+    <x:mergeCell ref="A29:B29"/>
+    <x:mergeCell ref="A30:B30"/>
+    <x:mergeCell ref="A31:B31"/>
+    <x:mergeCell ref="A32:B32"/>
+    <x:mergeCell ref="D39:E39"/>
   </x:mergeCells>
   <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
